--- a/data/trans_orig/P19C01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56DD3B8B-C6DD-4116-84DB-C019BA7B21AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C2620C-5995-45CB-9DEC-E8B45182C49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9211CB81-F8B3-41A5-A72E-BD1697394098}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B3F412B-F3FE-449D-9F40-B25C238AE5ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>20,07%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>79,93%</t>
   </si>
   <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>23,61%</t>
   </si>
   <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>26,93%</t>
   </si>
   <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
   </si>
   <si>
     <t>73,07%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,1153 +197,1153 @@
     <t>30,03%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>33,94%</t>
   </si>
   <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
   </si>
   <si>
     <t>66,06%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
   </si>
   <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
   </si>
   <si>
     <t>60,87%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
   </si>
   <si>
     <t>39,13%</t>
   </si>
   <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
     <t>56,49%</t>
   </si>
   <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
   </si>
   <si>
     <t>56,89%</t>
   </si>
   <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
   </si>
   <si>
     <t>43,11%</t>
   </si>
   <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC20E0B-F748-45F7-8808-247F6FFA818D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C35883-5488-4745-A15B-BED649B88CD1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2219,13 +2219,13 @@
         <v>479564</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2240,13 @@
         <v>505292</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>507</v>
@@ -2255,13 +2255,13 @@
         <v>541498</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>978</v>
@@ -2270,13 +2270,13 @@
         <v>1046790</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2332,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2344,13 +2344,13 @@
         <v>156139</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -2359,13 +2359,13 @@
         <v>162393</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>314</v>
@@ -2374,13 +2374,13 @@
         <v>318531</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2395,13 @@
         <v>388950</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>432</v>
@@ -2410,13 +2410,13 @@
         <v>422216</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>797</v>
@@ -2425,13 +2425,13 @@
         <v>811167</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,7 +2487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2496,16 +2496,16 @@
         <v>260</v>
       </c>
       <c r="D16" s="7">
-        <v>249290</v>
+        <v>249291</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
@@ -2514,13 +2514,13 @@
         <v>293490</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>541</v>
@@ -2529,13 +2529,13 @@
         <v>542781</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2550,13 @@
         <v>461901</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>499</v>
@@ -2565,13 +2565,13 @@
         <v>519578</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>994</v>
@@ -2580,13 +2580,13 @@
         <v>981478</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,7 +2598,7 @@
         <v>755</v>
       </c>
       <c r="D18" s="7">
-        <v>711191</v>
+        <v>711192</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2654,13 +2654,13 @@
         <v>732331</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>839</v>
@@ -2669,13 +2669,13 @@
         <v>860064</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1552</v>
@@ -2684,13 +2684,13 @@
         <v>1592395</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,16 +2702,16 @@
         <v>1695</v>
       </c>
       <c r="D20" s="7">
-        <v>1723914</v>
+        <v>1723915</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1839</v>
@@ -2720,13 +2720,13 @@
         <v>1879942</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>3534</v>
@@ -2735,13 +2735,13 @@
         <v>3603857</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,7 +2753,7 @@
         <v>2408</v>
       </c>
       <c r="D21" s="7">
-        <v>2456245</v>
+        <v>2456246</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C77C46-F42A-4085-8851-144C07E47AF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC07A94-CAED-4597-8FF0-8FBB0BF342B2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2942,13 @@
         <v>19329</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2957,13 +2957,13 @@
         <v>26006</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -2972,13 +2972,13 @@
         <v>45335</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2993,13 @@
         <v>81425</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -3008,13 +3008,13 @@
         <v>67812</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>145</v>
@@ -3023,13 +3023,13 @@
         <v>149237</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3097,13 @@
         <v>113252</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>169</v>
@@ -3112,13 +3112,13 @@
         <v>179575</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>276</v>
@@ -3127,13 +3127,13 @@
         <v>292827</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3148,13 @@
         <v>391945</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>341</v>
@@ -3163,13 +3163,13 @@
         <v>362408</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>710</v>
@@ -3178,13 +3178,13 @@
         <v>754353</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3252,13 @@
         <v>257952</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>275</v>
@@ -3267,13 +3267,13 @@
         <v>299201</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>512</v>
@@ -3282,13 +3282,13 @@
         <v>557154</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3303,13 @@
         <v>609046</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>546</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3735,10 +3735,10 @@
         <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1799</v>
@@ -3747,13 +3747,13 @@
         <v>1934381</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,28 +3768,28 @@
         <v>2056890</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>1916</v>
       </c>
       <c r="I20" s="7">
-        <v>2068681</v>
+        <v>2068682</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>3851</v>
@@ -3798,13 +3798,13 @@
         <v>4125572</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,7 +3831,7 @@
         <v>2914</v>
       </c>
       <c r="I21" s="7">
-        <v>3145294</v>
+        <v>3145295</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D632BEBF-18E9-4835-9F63-B8D3D35BB4A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728ADB8F-2611-40FD-9541-F152C72C7E4B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +4005,13 @@
         <v>37425</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -4020,13 +4020,13 @@
         <v>41494</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -4035,13 +4035,13 @@
         <v>78918</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4056,13 @@
         <v>61350</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -4071,13 +4071,13 @@
         <v>59507</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -4086,13 +4086,13 @@
         <v>120858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4160,13 @@
         <v>146353</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>177</v>
@@ -4175,13 +4175,13 @@
         <v>176086</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>320</v>
@@ -4190,13 +4190,13 @@
         <v>322440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4211,13 @@
         <v>279865</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>265</v>
@@ -4226,13 +4226,13 @@
         <v>267275</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>534</v>
@@ -4241,13 +4241,13 @@
         <v>547140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4315,13 @@
         <v>332161</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>345</v>
@@ -4330,13 +4330,13 @@
         <v>357344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>653</v>
@@ -4345,13 +4345,13 @@
         <v>689505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4366,13 @@
         <v>484185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>473</v>
@@ -4381,13 +4381,13 @@
         <v>509029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>919</v>
@@ -4396,13 +4396,13 @@
         <v>993214</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,7 +4458,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4470,13 +4470,13 @@
         <v>214090</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -4485,13 +4485,13 @@
         <v>247820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>433</v>
@@ -4500,13 +4500,13 @@
         <v>461910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4521,13 @@
         <v>336270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>311</v>
@@ -4536,13 +4536,13 @@
         <v>331918</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -4551,13 +4551,13 @@
         <v>668188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4625,13 +4625,13 @@
         <v>356375</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>394</v>
@@ -4640,13 +4640,13 @@
         <v>420929</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>748</v>
@@ -4655,13 +4655,13 @@
         <v>777304</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4676,13 @@
         <v>416260</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>419</v>
@@ -4691,13 +4691,13 @@
         <v>455912</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>833</v>
@@ -4706,13 +4706,13 @@
         <v>872172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4780,13 @@
         <v>1086404</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>1199</v>
@@ -4795,13 +4795,13 @@
         <v>1243673</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>2232</v>
@@ -4810,13 +4810,13 @@
         <v>2330077</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,16 +4828,16 @@
         <v>1497</v>
       </c>
       <c r="D20" s="7">
-        <v>1577930</v>
+        <v>1577929</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>1528</v>
@@ -4846,28 +4846,28 @@
         <v>1623642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>3025</v>
       </c>
       <c r="N20" s="7">
-        <v>3201572</v>
+        <v>3201571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,7 +4879,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4909,7 +4909,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A106D144-C4E4-47BA-8811-37C2D49A9D58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C874569-317F-45AD-9934-0229FDE5C376}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5068,13 @@
         <v>50774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>104</v>
@@ -5083,13 +5083,13 @@
         <v>51304</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>161</v>
@@ -5098,13 +5098,13 @@
         <v>102079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5119,13 @@
         <v>49700</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H5" s="7">
         <v>134</v>
@@ -5134,13 +5134,13 @@
         <v>76982</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M5" s="7">
         <v>192</v>
@@ -5149,13 +5149,13 @@
         <v>126681</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5223,13 @@
         <v>268564</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>522</v>
@@ -5238,13 +5238,13 @@
         <v>317996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>812</v>
@@ -5253,13 +5253,13 @@
         <v>586561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5274,13 @@
         <v>257585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5289,13 +5289,13 @@
         <v>251501</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>728</v>
@@ -5304,13 +5304,13 @@
         <v>509085</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5378,13 @@
         <v>575975</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>908</v>
@@ -5393,13 +5393,13 @@
         <v>642979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>1450</v>
@@ -5408,13 +5408,13 @@
         <v>1218955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5429,13 @@
         <v>440374</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H11" s="7">
         <v>578</v>
@@ -5444,13 +5444,13 @@
         <v>399121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M11" s="7">
         <v>973</v>
@@ -5459,13 +5459,13 @@
         <v>839495</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,7 +5521,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5533,13 +5533,13 @@
         <v>387167</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>561</v>
@@ -5548,13 +5548,13 @@
         <v>402077</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>927</v>
@@ -5563,13 +5563,13 @@
         <v>789244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,10 +5584,10 @@
         <v>321374</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>396</v>
@@ -5599,13 +5599,13 @@
         <v>460111</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>752</v>
@@ -5614,13 +5614,13 @@
         <v>781486</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,7 +5676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5688,13 +5688,13 @@
         <v>569140</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>940</v>
@@ -5703,13 +5703,13 @@
         <v>713641</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>1507</v>
@@ -5718,13 +5718,13 @@
         <v>1282780</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,10 +5739,10 @@
         <v>357238</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>412</v>
@@ -5858,7 +5858,7 @@
         <v>2127998</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>422</v>
@@ -5909,7 +5909,7 @@
         <v>1588850</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>430</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C2620C-5995-45CB-9DEC-E8B45182C49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A59CBA2-D23C-4D72-B97B-A916F89DC48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B3F412B-F3FE-449D-9F40-B25C238AE5ED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A4B8C492-7606-4DF5-B444-A2EAD7E5C96C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,1159 +77,1183 @@
     <t>20,07%</t>
   </si>
   <si>
-    <t>11,26%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>29,74%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
   </si>
   <si>
     <t>70,26%</t>
   </si>
   <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
   </si>
   <si>
     <t>46,63%</t>
   </si>
   <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
   </si>
   <si>
     <t>53,37%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
   </si>
   <si>
     <t>45,33%</t>
@@ -1755,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C35883-5488-4745-A15B-BED649B88CD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16402057-635F-4781-8AAE-312AED22A76F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1927,7 +1951,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="7">
-        <v>62160</v>
+        <v>62161</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1978,7 +2002,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2496,7 +2520,7 @@
         <v>260</v>
       </c>
       <c r="D16" s="7">
-        <v>249291</v>
+        <v>249290</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -2598,7 +2622,7 @@
         <v>755</v>
       </c>
       <c r="D18" s="7">
-        <v>711192</v>
+        <v>711191</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2818,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC07A94-CAED-4597-8FF0-8FBB0BF342B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108A8C1C-DF23-48E4-A567-3A498998E3B6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3735,10 +3759,10 @@
         <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1799</v>
@@ -3747,13 +3771,13 @@
         <v>1934381</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,28 +3792,28 @@
         <v>2056890</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>1916</v>
       </c>
       <c r="I20" s="7">
-        <v>2068682</v>
+        <v>2068681</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>3851</v>
@@ -3798,13 +3822,13 @@
         <v>4125572</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,7 +3855,7 @@
         <v>2914</v>
       </c>
       <c r="I21" s="7">
-        <v>3145295</v>
+        <v>3145294</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3881,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728ADB8F-2611-40FD-9541-F152C72C7E4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8B2BC0-9B63-4AED-A4CC-CE0765DC20D6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +4029,13 @@
         <v>37425</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -4020,13 +4044,13 @@
         <v>41494</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -4035,13 +4059,13 @@
         <v>78918</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4080,13 @@
         <v>61350</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -4071,13 +4095,13 @@
         <v>59507</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -4086,13 +4110,13 @@
         <v>120858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4184,13 @@
         <v>146353</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>177</v>
@@ -4175,13 +4199,13 @@
         <v>176086</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>320</v>
@@ -4190,13 +4214,13 @@
         <v>322440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4235,13 @@
         <v>279865</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>265</v>
@@ -4226,13 +4250,13 @@
         <v>267275</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>534</v>
@@ -4241,13 +4265,13 @@
         <v>547140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4339,13 @@
         <v>332161</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>345</v>
@@ -4330,13 +4354,13 @@
         <v>357344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>653</v>
@@ -4345,13 +4369,13 @@
         <v>689505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4390,13 @@
         <v>484185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>473</v>
@@ -4381,13 +4405,13 @@
         <v>509029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>919</v>
@@ -4396,13 +4420,13 @@
         <v>993214</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4494,13 @@
         <v>214090</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -4485,13 +4509,13 @@
         <v>247820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>433</v>
@@ -4500,13 +4524,13 @@
         <v>461910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4545,13 @@
         <v>336270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>311</v>
@@ -4536,13 +4560,13 @@
         <v>331918</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -4551,13 +4575,13 @@
         <v>668188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4649,13 @@
         <v>356375</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>394</v>
@@ -4640,13 +4664,13 @@
         <v>420929</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>748</v>
@@ -4655,13 +4679,13 @@
         <v>777304</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4700,13 @@
         <v>416260</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>419</v>
@@ -4691,13 +4715,13 @@
         <v>455912</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>833</v>
@@ -4706,13 +4730,13 @@
         <v>872172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4804,13 @@
         <v>1086404</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>1199</v>
@@ -4795,13 +4819,13 @@
         <v>1243673</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>2232</v>
@@ -4810,13 +4834,13 @@
         <v>2330077</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,16 +4852,16 @@
         <v>1497</v>
       </c>
       <c r="D20" s="7">
-        <v>1577929</v>
+        <v>1577930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
         <v>1528</v>
@@ -4846,13 +4870,13 @@
         <v>1623642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M20" s="7">
         <v>3025</v>
@@ -4861,13 +4885,13 @@
         <v>3201571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,7 +4903,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4944,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C874569-317F-45AD-9934-0229FDE5C376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8501D666-B8D8-4E7E-AD23-BB8E161615D8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5092,13 @@
         <v>50774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7">
         <v>104</v>
@@ -5083,13 +5107,13 @@
         <v>51304</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>161</v>
@@ -5098,13 +5122,13 @@
         <v>102079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5143,13 @@
         <v>49700</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>134</v>
@@ -5134,13 +5158,13 @@
         <v>76982</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>192</v>
@@ -5149,13 +5173,13 @@
         <v>126681</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5247,13 @@
         <v>268564</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H7" s="7">
         <v>522</v>
@@ -5238,13 +5262,13 @@
         <v>317996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>812</v>
@@ -5253,13 +5277,13 @@
         <v>586561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5298,13 @@
         <v>257585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5289,13 +5313,13 @@
         <v>251501</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M8" s="7">
         <v>728</v>
@@ -5304,13 +5328,13 @@
         <v>509085</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5402,13 @@
         <v>575975</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>908</v>
@@ -5393,13 +5417,13 @@
         <v>642979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>1450</v>
@@ -5408,13 +5432,13 @@
         <v>1218955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5453,13 @@
         <v>440374</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H11" s="7">
         <v>578</v>
@@ -5444,13 +5468,13 @@
         <v>399121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M11" s="7">
         <v>973</v>
@@ -5459,13 +5483,13 @@
         <v>839495</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5557,13 @@
         <v>387167</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>561</v>
@@ -5548,13 +5572,13 @@
         <v>402077</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>927</v>
@@ -5563,13 +5587,13 @@
         <v>789244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5608,13 @@
         <v>321374</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>463</v>
@@ -5599,13 +5623,13 @@
         <v>460111</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>752</v>
@@ -5614,13 +5638,13 @@
         <v>781486</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5712,13 @@
         <v>569140</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>940</v>
@@ -5703,13 +5727,13 @@
         <v>713641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>1507</v>
@@ -5718,13 +5742,13 @@
         <v>1282780</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5763,13 @@
         <v>357238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>570</v>
@@ -5754,13 +5778,13 @@
         <v>401135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>969</v>
@@ -5769,13 +5793,13 @@
         <v>758374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5867,13 @@
         <v>1851621</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
         <v>3035</v>
@@ -5858,13 +5882,13 @@
         <v>2127998</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="M19" s="7">
         <v>4857</v>
@@ -5873,13 +5897,13 @@
         <v>3979619</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5918,13 @@
         <v>1426271</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>2182</v>
@@ -5909,13 +5933,13 @@
         <v>1588850</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>3614</v>
@@ -5924,13 +5948,13 @@
         <v>3015121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A59CBA2-D23C-4D72-B97B-A916F89DC48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9934E5BB-DBBB-44EF-A47F-541C77AA3CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A4B8C492-7606-4DF5-B444-A2EAD7E5C96C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D46C40B-B17E-414F-85D2-0A315777F92A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,1303 +71,1279 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>20,07%</t>
   </si>
   <si>
-    <t>11,71%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
+    <t>49,46%</t>
   </si>
   <si>
     <t>43,11%</t>
   </si>
   <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16402057-635F-4781-8AAE-312AED22A76F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905CCF61-8A2F-4303-A8A0-E02726ECB119}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1951,7 +1927,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="7">
-        <v>62161</v>
+        <v>62160</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2002,7 +1978,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2243,13 +2219,13 @@
         <v>479564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2240,13 @@
         <v>505292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>507</v>
@@ -2279,13 +2255,13 @@
         <v>541498</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>978</v>
@@ -2294,13 +2270,13 @@
         <v>1046790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,7 +2332,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2368,13 +2344,13 @@
         <v>156139</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -2383,13 +2359,13 @@
         <v>162393</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>314</v>
@@ -2398,13 +2374,13 @@
         <v>318531</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2395,13 @@
         <v>388950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>432</v>
@@ -2434,13 +2410,13 @@
         <v>422216</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>797</v>
@@ -2449,13 +2425,13 @@
         <v>811167</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,7 +2487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2523,13 +2499,13 @@
         <v>249290</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>281</v>
@@ -2538,13 +2514,13 @@
         <v>293490</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>541</v>
@@ -2553,13 +2529,13 @@
         <v>542781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2550,13 @@
         <v>461901</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>499</v>
@@ -2589,13 +2565,13 @@
         <v>519578</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>994</v>
@@ -2604,13 +2580,13 @@
         <v>981478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2654,13 @@
         <v>732331</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>839</v>
@@ -2693,13 +2669,13 @@
         <v>860064</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1552</v>
@@ -2708,13 +2684,13 @@
         <v>1592395</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,16 +2702,16 @@
         <v>1695</v>
       </c>
       <c r="D20" s="7">
-        <v>1723915</v>
+        <v>1723914</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1839</v>
@@ -2744,13 +2720,13 @@
         <v>1879942</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>3534</v>
@@ -2759,13 +2735,13 @@
         <v>3603857</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2753,7 @@
         <v>2408</v>
       </c>
       <c r="D21" s="7">
-        <v>2456246</v>
+        <v>2456245</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2821,7 +2797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108A8C1C-DF23-48E4-A567-3A498998E3B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D79FE2-6075-4D0B-A522-227685B2DBA7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2859,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2966,13 +2942,13 @@
         <v>19329</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2981,13 +2957,13 @@
         <v>26006</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -2996,13 +2972,13 @@
         <v>45335</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +2993,13 @@
         <v>81425</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -3032,13 +3008,13 @@
         <v>67812</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>145</v>
@@ -3047,13 +3023,13 @@
         <v>149237</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3097,13 @@
         <v>113252</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>169</v>
@@ -3136,13 +3112,13 @@
         <v>179575</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>276</v>
@@ -3151,13 +3127,13 @@
         <v>292827</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3148,13 @@
         <v>391945</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>341</v>
@@ -3187,13 +3163,13 @@
         <v>362408</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>710</v>
@@ -3202,13 +3178,13 @@
         <v>754353</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3252,13 @@
         <v>257952</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>275</v>
@@ -3291,13 +3267,13 @@
         <v>299201</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>512</v>
@@ -3306,13 +3282,13 @@
         <v>557154</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3303,13 @@
         <v>609046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>546</v>
@@ -3419,7 +3395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3574,7 +3550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3884,7 +3860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3905,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8B2BC0-9B63-4AED-A4CC-CE0765DC20D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343FC08E-A6A6-4DEF-8EF4-2535F76E64F7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4032,10 +4008,10 @@
         <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -4044,13 +4020,13 @@
         <v>41494</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -4059,13 +4035,13 @@
         <v>78918</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4056,13 @@
         <v>61350</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -4095,13 +4071,13 @@
         <v>59507</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -4110,13 +4086,13 @@
         <v>120858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4160,13 @@
         <v>146353</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>177</v>
@@ -4199,13 +4175,13 @@
         <v>176086</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>320</v>
@@ -4214,13 +4190,13 @@
         <v>322440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4211,13 @@
         <v>279865</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>265</v>
@@ -4250,13 +4226,13 @@
         <v>267275</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>534</v>
@@ -4265,13 +4241,13 @@
         <v>547140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4315,13 @@
         <v>332161</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>345</v>
@@ -4354,13 +4330,13 @@
         <v>357344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>653</v>
@@ -4369,13 +4345,13 @@
         <v>689505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4366,13 @@
         <v>484185</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>473</v>
@@ -4405,13 +4381,13 @@
         <v>509029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>919</v>
@@ -4420,13 +4396,13 @@
         <v>993214</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4458,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4494,13 +4470,13 @@
         <v>214090</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -4509,13 +4485,13 @@
         <v>247820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>433</v>
@@ -4524,13 +4500,13 @@
         <v>461910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4521,13 @@
         <v>336270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>311</v>
@@ -4560,13 +4536,13 @@
         <v>331918</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>620</v>
@@ -4575,13 +4551,13 @@
         <v>668188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,7 +4613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4649,13 +4625,13 @@
         <v>356375</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>394</v>
@@ -4664,13 +4640,13 @@
         <v>420929</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>748</v>
@@ -4679,13 +4655,13 @@
         <v>777304</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4676,13 @@
         <v>416260</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>419</v>
@@ -4715,13 +4691,13 @@
         <v>455912</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>833</v>
@@ -4730,13 +4706,13 @@
         <v>872172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4780,13 @@
         <v>1086404</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>1199</v>
@@ -4819,13 +4795,13 @@
         <v>1243673</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>2232</v>
@@ -4834,13 +4810,13 @@
         <v>2330077</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4831,13 @@
         <v>1577930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>1528</v>
@@ -4870,28 +4846,28 @@
         <v>1623642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>3025</v>
       </c>
       <c r="N20" s="7">
-        <v>3201571</v>
+        <v>3201572</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,7 +4909,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4947,7 +4923,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4968,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8501D666-B8D8-4E7E-AD23-BB8E161615D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280E1AE2-2A00-4B52-85D7-90C65AABD535}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4985,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5092,13 +5068,13 @@
         <v>50774</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>104</v>
@@ -5107,13 +5083,13 @@
         <v>51304</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>161</v>
@@ -5122,13 +5098,13 @@
         <v>102079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5119,13 @@
         <v>49700</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>134</v>
@@ -5158,13 +5134,13 @@
         <v>76982</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>192</v>
@@ -5173,13 +5149,13 @@
         <v>126681</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5223,13 @@
         <v>268564</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>522</v>
@@ -5262,13 +5238,13 @@
         <v>317996</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>812</v>
@@ -5277,13 +5253,13 @@
         <v>586561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5274,13 @@
         <v>257585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>437</v>
@@ -5313,13 +5289,13 @@
         <v>251501</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>728</v>
@@ -5328,13 +5304,13 @@
         <v>509085</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5378,13 @@
         <v>575975</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>908</v>
@@ -5417,13 +5393,13 @@
         <v>642979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>1450</v>
@@ -5432,13 +5408,13 @@
         <v>1218955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5429,13 @@
         <v>440374</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>578</v>
@@ -5468,13 +5444,13 @@
         <v>399121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>973</v>
@@ -5483,13 +5459,13 @@
         <v>839495</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,7 +5521,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5557,13 +5533,13 @@
         <v>387167</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>561</v>
@@ -5572,13 +5548,13 @@
         <v>402077</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>927</v>
@@ -5587,13 +5563,13 @@
         <v>789244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5584,13 @@
         <v>321374</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>463</v>
@@ -5623,13 +5599,13 @@
         <v>460111</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>752</v>
@@ -5638,13 +5614,13 @@
         <v>781486</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,7 +5676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5712,13 +5688,13 @@
         <v>569140</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>940</v>
@@ -5727,13 +5703,13 @@
         <v>713641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>1507</v>
@@ -5742,13 +5718,13 @@
         <v>1282780</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5739,13 @@
         <v>357238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>570</v>
@@ -5778,13 +5754,13 @@
         <v>401135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>969</v>
@@ -5793,13 +5769,13 @@
         <v>758374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5843,13 @@
         <v>1851621</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>3035</v>
@@ -5882,13 +5858,13 @@
         <v>2127998</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>4857</v>
@@ -5897,13 +5873,13 @@
         <v>3979619</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5894,13 @@
         <v>1426271</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>2182</v>
@@ -5933,13 +5909,13 @@
         <v>1588850</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>3614</v>
@@ -5948,13 +5924,13 @@
         <v>3015121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,7 +5986,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9934E5BB-DBBB-44EF-A47F-541C77AA3CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C175067F-EB52-4AB0-BF4D-09C59B85EEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D46C40B-B17E-414F-85D2-0A315777F92A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EDF7696D-6410-42BD-BB0D-111BF0C71BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>71,11%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>28,64%</t>
@@ -260,9 +203,6 @@
     <t>32,88%</t>
   </si>
   <si>
-    <t>27,78%</t>
-  </si>
-  <si>
     <t>24,39%</t>
   </si>
   <si>
@@ -287,9 +227,6 @@
     <t>75,06%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
     <t>68,56%</t>
   </si>
   <si>
@@ -422,112 +359,58 @@
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
   </si>
   <si>
     <t>29,75%</t>
@@ -743,607 +626,523 @@
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
   </si>
   <si>
     <t>41,08%</t>
   </si>
   <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>59,06%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>41,37%</t>
   </si>
   <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>52,77%</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905CCF61-8A2F-4303-A8A0-E02726ECB119}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D049A541-6E69-4BD3-B1FE-1F9839C3EACB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1873,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>15605</v>
+        <v>110066</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1888,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="I4" s="7">
-        <v>22039</v>
+        <v>141453</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1903,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="N4" s="7">
-        <v>37644</v>
+        <v>251519</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1924,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>56</v>
+        <v>364</v>
       </c>
       <c r="D5" s="7">
-        <v>62160</v>
+        <v>367771</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1939,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="I5" s="7">
-        <v>72709</v>
+        <v>396651</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1954,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>138</v>
+        <v>765</v>
       </c>
       <c r="N5" s="7">
-        <v>134870</v>
+        <v>764422</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1975,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>477837</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>107</v>
+        <v>546</v>
       </c>
       <c r="I6" s="7">
-        <v>94748</v>
+        <v>538104</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>177</v>
+        <v>1016</v>
       </c>
       <c r="N6" s="7">
-        <v>172514</v>
+        <v>1015941</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2028,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="D7" s="7">
-        <v>94461</v>
+        <v>216836</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2043,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="I7" s="7">
-        <v>119414</v>
+        <v>262728</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2058,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>212</v>
+        <v>446</v>
       </c>
       <c r="N7" s="7">
-        <v>213876</v>
+        <v>479564</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2079,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>308</v>
+        <v>471</v>
       </c>
       <c r="D8" s="7">
-        <v>305611</v>
+        <v>505292</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2094,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>319</v>
+        <v>507</v>
       </c>
       <c r="I8" s="7">
-        <v>323941</v>
+        <v>541498</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2109,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>627</v>
+        <v>978</v>
       </c>
       <c r="N8" s="7">
-        <v>629551</v>
+        <v>1046790</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2130,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>668</v>
       </c>
       <c r="D9" s="7">
-        <v>400072</v>
+        <v>722128</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2145,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>439</v>
+        <v>756</v>
       </c>
       <c r="I9" s="7">
-        <v>443355</v>
+        <v>804226</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2160,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>839</v>
+        <v>1424</v>
       </c>
       <c r="N9" s="7">
-        <v>843427</v>
+        <v>1526354</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2183,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="D10" s="7">
-        <v>216836</v>
+        <v>156139</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2198,34 +1997,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="I10" s="7">
-        <v>262728</v>
+        <v>162393</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>314</v>
+      </c>
+      <c r="N10" s="7">
+        <v>318531</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>446</v>
-      </c>
-      <c r="N10" s="7">
-        <v>479564</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,49 +2033,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>471</v>
+        <v>365</v>
       </c>
       <c r="D11" s="7">
-        <v>505292</v>
+        <v>388950</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>432</v>
+      </c>
+      <c r="I11" s="7">
+        <v>422216</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>507</v>
-      </c>
-      <c r="I11" s="7">
-        <v>541498</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>797</v>
+      </c>
+      <c r="N11" s="7">
+        <v>811167</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>978</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1046790</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>668</v>
+        <v>515</v>
       </c>
       <c r="D12" s="7">
-        <v>722128</v>
+        <v>545089</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2300,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>756</v>
+        <v>596</v>
       </c>
       <c r="I12" s="7">
-        <v>804226</v>
+        <v>584609</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1424</v>
+        <v>1111</v>
       </c>
       <c r="N12" s="7">
-        <v>1526354</v>
+        <v>1129698</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2332,55 +2131,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="D13" s="7">
-        <v>156139</v>
+        <v>249290</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>281</v>
+      </c>
+      <c r="I13" s="7">
+        <v>293490</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>164</v>
-      </c>
-      <c r="I13" s="7">
-        <v>162393</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>541</v>
+      </c>
+      <c r="N13" s="7">
+        <v>542781</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>314</v>
-      </c>
-      <c r="N13" s="7">
-        <v>318531</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,49 +2188,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>365</v>
+        <v>495</v>
       </c>
       <c r="D14" s="7">
-        <v>388950</v>
+        <v>461901</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>499</v>
+      </c>
+      <c r="I14" s="7">
+        <v>519577</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>432</v>
-      </c>
-      <c r="I14" s="7">
-        <v>422216</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>994</v>
+      </c>
+      <c r="N14" s="7">
+        <v>981478</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>797</v>
-      </c>
-      <c r="N14" s="7">
-        <v>811167</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>515</v>
+        <v>755</v>
       </c>
       <c r="D15" s="7">
-        <v>545089</v>
+        <v>711191</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2455,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>596</v>
+        <v>780</v>
       </c>
       <c r="I15" s="7">
-        <v>584609</v>
+        <v>813067</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2470,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1111</v>
+        <v>1535</v>
       </c>
       <c r="N15" s="7">
-        <v>1129698</v>
+        <v>1524259</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2487,55 +2286,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>260</v>
+        <v>713</v>
       </c>
       <c r="D16" s="7">
-        <v>249290</v>
+        <v>732331</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>839</v>
+      </c>
+      <c r="I16" s="7">
+        <v>860064</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>281</v>
-      </c>
-      <c r="I16" s="7">
-        <v>293490</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1552</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1592395</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>541</v>
-      </c>
-      <c r="N16" s="7">
-        <v>542781</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,49 +2343,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>495</v>
+        <v>1695</v>
       </c>
       <c r="D17" s="7">
-        <v>461901</v>
+        <v>1723914</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1839</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1879942</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>499</v>
-      </c>
-      <c r="I17" s="7">
-        <v>519578</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3534</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3603857</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>994</v>
-      </c>
-      <c r="N17" s="7">
-        <v>981478</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>755</v>
+        <v>2408</v>
       </c>
       <c r="D18" s="7">
-        <v>711191</v>
+        <v>2456245</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2610,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>780</v>
+        <v>2678</v>
       </c>
       <c r="I18" s="7">
-        <v>813068</v>
+        <v>2740006</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2625,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1535</v>
+        <v>5086</v>
       </c>
       <c r="N18" s="7">
-        <v>1524259</v>
+        <v>5196252</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2641,171 +2440,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>713</v>
-      </c>
-      <c r="D19" s="7">
-        <v>732331</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>839</v>
-      </c>
-      <c r="I19" s="7">
-        <v>860064</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1552</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1592395</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1695</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1723914</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1839</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1879942</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3534</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3603857</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2408</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2456245</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2678</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2740006</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5086</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5196252</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2818,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D79FE2-6075-4D0B-A522-227685B2DBA7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DFB38F-BC9E-47B3-B454-4E1D54868CAD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2835,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D4" s="7">
-        <v>19329</v>
+        <v>132581</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="I4" s="7">
-        <v>26006</v>
+        <v>205580</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="N4" s="7">
-        <v>45335</v>
+        <v>338162</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>85</v>
+        <v>454</v>
       </c>
       <c r="D5" s="7">
-        <v>81425</v>
+        <v>473370</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>60</v>
+        <v>401</v>
       </c>
       <c r="I5" s="7">
-        <v>67812</v>
+        <v>430221</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>145</v>
+        <v>855</v>
       </c>
       <c r="N5" s="7">
-        <v>149237</v>
+        <v>903590</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>581</v>
       </c>
       <c r="D6" s="7">
-        <v>100754</v>
+        <v>605951</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>82</v>
+        <v>592</v>
       </c>
       <c r="I6" s="7">
-        <v>93818</v>
+        <v>635801</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>187</v>
+        <v>1173</v>
       </c>
       <c r="N6" s="7">
-        <v>194572</v>
+        <v>1241752</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3091,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="D7" s="7">
-        <v>113252</v>
+        <v>257952</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="I7" s="7">
-        <v>179575</v>
+        <v>299201</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>276</v>
+        <v>512</v>
       </c>
       <c r="N7" s="7">
-        <v>292827</v>
+        <v>557154</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>369</v>
+        <v>562</v>
       </c>
       <c r="D8" s="7">
-        <v>391945</v>
+        <v>609046</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>341</v>
+        <v>546</v>
       </c>
       <c r="I8" s="7">
-        <v>362408</v>
+        <v>599592</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>710</v>
+        <v>1108</v>
       </c>
       <c r="N8" s="7">
-        <v>754353</v>
+        <v>1208638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>476</v>
+        <v>799</v>
       </c>
       <c r="D9" s="7">
-        <v>505197</v>
+        <v>866998</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3208,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>510</v>
+        <v>821</v>
       </c>
       <c r="I9" s="7">
-        <v>541983</v>
+        <v>898793</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3223,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>986</v>
+        <v>1620</v>
       </c>
       <c r="N9" s="7">
-        <v>1047180</v>
+        <v>1765792</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3246,49 +2889,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="D10" s="7">
-        <v>257952</v>
+        <v>203686</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="I10" s="7">
-        <v>299201</v>
+        <v>220068</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>512</v>
+        <v>385</v>
       </c>
       <c r="N10" s="7">
-        <v>557154</v>
+        <v>423754</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>562</v>
+        <v>397</v>
       </c>
       <c r="D11" s="7">
-        <v>609046</v>
+        <v>432347</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>546</v>
+        <v>414</v>
       </c>
       <c r="I11" s="7">
-        <v>599592</v>
+        <v>457431</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1108</v>
+        <v>811</v>
       </c>
       <c r="N11" s="7">
-        <v>1208638</v>
+        <v>889778</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>799</v>
+        <v>582</v>
       </c>
       <c r="D12" s="7">
-        <v>866998</v>
+        <v>636033</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3363,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>821</v>
+        <v>614</v>
       </c>
       <c r="I12" s="7">
-        <v>898793</v>
+        <v>677499</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3378,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1620</v>
+        <v>1196</v>
       </c>
       <c r="N12" s="7">
-        <v>1765792</v>
+        <v>1313532</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3395,55 +3038,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="D13" s="7">
-        <v>203686</v>
+        <v>263549</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>200</v>
+        <v>332</v>
       </c>
       <c r="I13" s="7">
-        <v>220068</v>
+        <v>351763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>385</v>
+        <v>584</v>
       </c>
       <c r="N13" s="7">
-        <v>423754</v>
+        <v>615311</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>397</v>
+        <v>522</v>
       </c>
       <c r="D14" s="7">
-        <v>432347</v>
+        <v>542127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>414</v>
+        <v>555</v>
       </c>
       <c r="I14" s="7">
-        <v>457431</v>
+        <v>581438</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>811</v>
+        <v>1077</v>
       </c>
       <c r="N14" s="7">
-        <v>889778</v>
+        <v>1123566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>582</v>
+        <v>774</v>
       </c>
       <c r="D15" s="7">
-        <v>636033</v>
+        <v>805676</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3518,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>614</v>
+        <v>887</v>
       </c>
       <c r="I15" s="7">
-        <v>677499</v>
+        <v>933201</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3533,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1196</v>
+        <v>1661</v>
       </c>
       <c r="N15" s="7">
-        <v>1313532</v>
+        <v>1738877</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3550,55 +3193,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>252</v>
+        <v>801</v>
       </c>
       <c r="D16" s="7">
-        <v>263549</v>
+        <v>857768</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>332</v>
+        <v>998</v>
       </c>
       <c r="I16" s="7">
-        <v>351763</v>
+        <v>1076613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>584</v>
+        <v>1799</v>
       </c>
       <c r="N16" s="7">
-        <v>615311</v>
+        <v>1934381</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>522</v>
+        <v>1935</v>
       </c>
       <c r="D17" s="7">
-        <v>542127</v>
+        <v>2056891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>555</v>
+        <v>1916</v>
       </c>
       <c r="I17" s="7">
-        <v>581438</v>
+        <v>2068682</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>1077</v>
+        <v>3851</v>
       </c>
       <c r="N17" s="7">
-        <v>1123566</v>
+        <v>4125572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>774</v>
+        <v>2736</v>
       </c>
       <c r="D18" s="7">
-        <v>805676</v>
+        <v>2914659</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3673,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>887</v>
+        <v>2914</v>
       </c>
       <c r="I18" s="7">
-        <v>933201</v>
+        <v>3145295</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3688,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1661</v>
+        <v>5650</v>
       </c>
       <c r="N18" s="7">
-        <v>1738877</v>
+        <v>6059953</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3704,171 +3347,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>801</v>
-      </c>
-      <c r="D19" s="7">
-        <v>857768</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>998</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1076613</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1799</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1934381</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1935</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2056890</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1916</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2068681</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3851</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4125572</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2736</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2914658</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2914</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3145294</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5650</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6059953</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3881,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343FC08E-A6A6-4DEF-8EF4-2535F76E64F7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87756FF6-F5C0-44A1-A5F2-FDC6A94E6EF0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3898,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="D4" s="7">
-        <v>37425</v>
+        <v>183778</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="I4" s="7">
-        <v>41494</v>
+        <v>217580</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="N4" s="7">
-        <v>78918</v>
+        <v>401358</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>59</v>
+        <v>328</v>
       </c>
       <c r="D5" s="7">
-        <v>61350</v>
+        <v>341215</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>60</v>
+        <v>325</v>
       </c>
       <c r="I5" s="7">
-        <v>59507</v>
+        <v>326783</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>119</v>
+        <v>653</v>
       </c>
       <c r="N5" s="7">
-        <v>120858</v>
+        <v>667998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>95</v>
+        <v>507</v>
       </c>
       <c r="D6" s="7">
-        <v>98775</v>
+        <v>524993</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4116,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="I6" s="7">
-        <v>101001</v>
+        <v>544363</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4131,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>197</v>
+        <v>1051</v>
       </c>
       <c r="N6" s="7">
-        <v>199776</v>
+        <v>1069356</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4154,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="D7" s="7">
-        <v>146353</v>
+        <v>332161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
-        <v>177</v>
+        <v>345</v>
       </c>
       <c r="I7" s="7">
-        <v>176086</v>
+        <v>357344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
-        <v>320</v>
+        <v>653</v>
       </c>
       <c r="N7" s="7">
-        <v>322440</v>
+        <v>689505</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>269</v>
+        <v>446</v>
       </c>
       <c r="D8" s="7">
-        <v>279865</v>
+        <v>484185</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
-        <v>265</v>
+        <v>473</v>
       </c>
       <c r="I8" s="7">
-        <v>267275</v>
+        <v>509029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>534</v>
+        <v>919</v>
       </c>
       <c r="N8" s="7">
-        <v>547140</v>
+        <v>993214</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>412</v>
+        <v>754</v>
       </c>
       <c r="D9" s="7">
-        <v>426218</v>
+        <v>816346</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4271,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>442</v>
+        <v>818</v>
       </c>
       <c r="I9" s="7">
-        <v>443361</v>
+        <v>866373</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4286,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>854</v>
+        <v>1572</v>
       </c>
       <c r="N9" s="7">
-        <v>869580</v>
+        <v>1682719</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4309,49 +3796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="D10" s="7">
-        <v>332161</v>
+        <v>214090</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>345</v>
+        <v>241</v>
       </c>
       <c r="I10" s="7">
-        <v>357344</v>
+        <v>247820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>653</v>
+        <v>433</v>
       </c>
       <c r="N10" s="7">
-        <v>689505</v>
+        <v>461910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>446</v>
+        <v>309</v>
       </c>
       <c r="D11" s="7">
-        <v>484185</v>
+        <v>336270</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>473</v>
+        <v>311</v>
       </c>
       <c r="I11" s="7">
-        <v>509029</v>
+        <v>331918</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>919</v>
+        <v>620</v>
       </c>
       <c r="N11" s="7">
-        <v>993214</v>
+        <v>668188</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>754</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>816346</v>
+        <v>550360</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4426,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>818</v>
+        <v>552</v>
       </c>
       <c r="I12" s="7">
-        <v>866373</v>
+        <v>579738</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4441,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1572</v>
+        <v>1053</v>
       </c>
       <c r="N12" s="7">
-        <v>1682719</v>
+        <v>1130098</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4458,55 +3945,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>192</v>
+        <v>354</v>
       </c>
       <c r="D13" s="7">
-        <v>214090</v>
+        <v>356375</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>241</v>
+        <v>394</v>
       </c>
       <c r="I13" s="7">
-        <v>247820</v>
+        <v>420929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>433</v>
+        <v>748</v>
       </c>
       <c r="N13" s="7">
-        <v>461910</v>
+        <v>777304</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>309</v>
+        <v>414</v>
       </c>
       <c r="D14" s="7">
-        <v>336270</v>
+        <v>416260</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>311</v>
+        <v>419</v>
       </c>
       <c r="I14" s="7">
-        <v>331918</v>
+        <v>455912</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>620</v>
+        <v>833</v>
       </c>
       <c r="N14" s="7">
-        <v>668188</v>
+        <v>872172</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>501</v>
+        <v>768</v>
       </c>
       <c r="D15" s="7">
-        <v>550360</v>
+        <v>772635</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4581,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>552</v>
+        <v>813</v>
       </c>
       <c r="I15" s="7">
-        <v>579738</v>
+        <v>876841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4596,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1053</v>
+        <v>1581</v>
       </c>
       <c r="N15" s="7">
-        <v>1130098</v>
+        <v>1649476</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4613,55 +4100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>354</v>
+        <v>1033</v>
       </c>
       <c r="D16" s="7">
-        <v>356375</v>
+        <v>1086404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>394</v>
+        <v>1199</v>
       </c>
       <c r="I16" s="7">
-        <v>420929</v>
+        <v>1243673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>748</v>
+        <v>2232</v>
       </c>
       <c r="N16" s="7">
-        <v>777304</v>
+        <v>2330077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>414</v>
+        <v>1497</v>
       </c>
       <c r="D17" s="7">
-        <v>416260</v>
+        <v>1577929</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
-        <v>419</v>
+        <v>1528</v>
       </c>
       <c r="I17" s="7">
-        <v>455912</v>
+        <v>1623642</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
-        <v>833</v>
+        <v>3025</v>
       </c>
       <c r="N17" s="7">
-        <v>872172</v>
+        <v>3201571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>768</v>
+        <v>2530</v>
       </c>
       <c r="D18" s="7">
-        <v>772635</v>
+        <v>2664333</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4736,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>813</v>
+        <v>2727</v>
       </c>
       <c r="I18" s="7">
-        <v>876841</v>
+        <v>2867315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4751,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1581</v>
+        <v>5257</v>
       </c>
       <c r="N18" s="7">
-        <v>1649476</v>
+        <v>5531648</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4767,171 +4254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1033</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1086404</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1199</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1243673</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2232</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2330077</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1497</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1577930</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1528</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1623642</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3025</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3201572</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2530</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2727</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2867315</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5257</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4944,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280E1AE2-2A00-4B52-85D7-90C65AABD535}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDC42CD-E302-467E-AD58-B373F25C5BBF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4961,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>57</v>
+        <v>347</v>
       </c>
       <c r="D4" s="7">
-        <v>50774</v>
+        <v>312163</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
-        <v>104</v>
+        <v>626</v>
       </c>
       <c r="I4" s="7">
-        <v>51304</v>
+        <v>344669</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
-        <v>161</v>
+        <v>973</v>
       </c>
       <c r="N4" s="7">
-        <v>102079</v>
+        <v>656832</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>58</v>
+        <v>349</v>
       </c>
       <c r="D5" s="7">
-        <v>49700</v>
+        <v>299141</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
-        <v>134</v>
+        <v>571</v>
       </c>
       <c r="I5" s="7">
-        <v>76982</v>
+        <v>306863</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
-        <v>192</v>
+        <v>920</v>
       </c>
       <c r="N5" s="7">
-        <v>126681</v>
+        <v>606004</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>696</v>
       </c>
       <c r="D6" s="7">
-        <v>100474</v>
+        <v>611304</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5179,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1197</v>
       </c>
       <c r="I6" s="7">
-        <v>128286</v>
+        <v>651532</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5194,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>353</v>
+        <v>1893</v>
       </c>
       <c r="N6" s="7">
-        <v>228760</v>
+        <v>1262836</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5217,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>290</v>
+        <v>542</v>
       </c>
       <c r="D7" s="7">
-        <v>268564</v>
+        <v>550276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
-        <v>522</v>
+        <v>908</v>
       </c>
       <c r="I7" s="7">
-        <v>317996</v>
+        <v>577991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
-        <v>812</v>
+        <v>1450</v>
       </c>
       <c r="N7" s="7">
-        <v>586561</v>
+        <v>1128267</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>291</v>
+        <v>395</v>
       </c>
       <c r="D8" s="7">
-        <v>257585</v>
+        <v>617144</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>437</v>
+        <v>578</v>
       </c>
       <c r="I8" s="7">
-        <v>251501</v>
+        <v>364334</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>728</v>
+        <v>973</v>
       </c>
       <c r="N8" s="7">
-        <v>509085</v>
+        <v>981478</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>581</v>
+        <v>937</v>
       </c>
       <c r="D9" s="7">
-        <v>526149</v>
+        <v>1167420</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5334,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>959</v>
+        <v>1486</v>
       </c>
       <c r="I9" s="7">
-        <v>569497</v>
+        <v>942325</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5349,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1540</v>
+        <v>2423</v>
       </c>
       <c r="N9" s="7">
-        <v>1095646</v>
+        <v>2109745</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5372,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>542</v>
+        <v>366</v>
       </c>
       <c r="D10" s="7">
-        <v>575975</v>
+        <v>374875</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>908</v>
+        <v>561</v>
       </c>
       <c r="I10" s="7">
-        <v>642979</v>
+        <v>373062</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
-        <v>1450</v>
+        <v>927</v>
       </c>
       <c r="N10" s="7">
-        <v>1218955</v>
+        <v>747937</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>395</v>
+        <v>289</v>
       </c>
       <c r="D11" s="7">
-        <v>440374</v>
+        <v>311392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
-        <v>578</v>
+        <v>463</v>
       </c>
       <c r="I11" s="7">
-        <v>399121</v>
+        <v>548991</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
-        <v>973</v>
+        <v>752</v>
       </c>
       <c r="N11" s="7">
-        <v>839495</v>
+        <v>860383</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>937</v>
+        <v>655</v>
       </c>
       <c r="D12" s="7">
-        <v>1016349</v>
+        <v>686267</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5489,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1486</v>
+        <v>1024</v>
       </c>
       <c r="I12" s="7">
-        <v>1042100</v>
+        <v>922053</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5504,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2423</v>
+        <v>1679</v>
       </c>
       <c r="N12" s="7">
-        <v>2058450</v>
+        <v>1608320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5521,55 +4852,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>366</v>
+        <v>567</v>
       </c>
       <c r="D13" s="7">
-        <v>387167</v>
+        <v>553896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
-        <v>561</v>
+        <v>940</v>
       </c>
       <c r="I13" s="7">
-        <v>402077</v>
+        <v>702120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
-        <v>927</v>
+        <v>1507</v>
       </c>
       <c r="N13" s="7">
-        <v>789244</v>
+        <v>1256015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>289</v>
+        <v>399</v>
       </c>
       <c r="D14" s="7">
-        <v>321374</v>
+        <v>336039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
-        <v>463</v>
+        <v>570</v>
       </c>
       <c r="I14" s="7">
-        <v>460111</v>
+        <v>360797</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>40</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
-        <v>752</v>
+        <v>969</v>
       </c>
       <c r="N14" s="7">
-        <v>781486</v>
+        <v>696836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>655</v>
+        <v>966</v>
       </c>
       <c r="D15" s="7">
-        <v>708541</v>
+        <v>889935</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5644,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1024</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="7">
-        <v>862188</v>
+        <v>1062917</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5659,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1679</v>
+        <v>2476</v>
       </c>
       <c r="N15" s="7">
-        <v>1570730</v>
+        <v>1952851</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5676,55 +5007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>567</v>
+        <v>1822</v>
       </c>
       <c r="D16" s="7">
-        <v>569140</v>
+        <v>1791211</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
-        <v>940</v>
+        <v>3035</v>
       </c>
       <c r="I16" s="7">
-        <v>713641</v>
+        <v>1997841</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
-        <v>1507</v>
+        <v>4857</v>
       </c>
       <c r="N16" s="7">
-        <v>1282780</v>
+        <v>3789051</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>399</v>
+        <v>1432</v>
       </c>
       <c r="D17" s="7">
-        <v>357238</v>
+        <v>1563715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
-        <v>570</v>
+        <v>2182</v>
       </c>
       <c r="I17" s="7">
-        <v>401135</v>
+        <v>1580986</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
-        <v>969</v>
+        <v>3614</v>
       </c>
       <c r="N17" s="7">
-        <v>758374</v>
+        <v>3144701</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>966</v>
+        <v>3254</v>
       </c>
       <c r="D18" s="7">
-        <v>926378</v>
+        <v>3354926</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5799,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1510</v>
+        <v>5217</v>
       </c>
       <c r="I18" s="7">
-        <v>1114776</v>
+        <v>3578827</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5814,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2476</v>
+        <v>8471</v>
       </c>
       <c r="N18" s="7">
-        <v>2041154</v>
+        <v>6933752</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5830,171 +5161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1822</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1851621</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3035</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2127998</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4857</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3979619</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1432</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1426271</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2182</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1588850</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3614</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3015121</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3254</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3277892</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5217</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8471</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6994740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
